--- a/Files data/01_IBIS 9 & 18 infants statistics.xlsx
+++ b/Files data/01_IBIS 9 & 18 infants statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\hoehl\projects\mibo_p\Physiological_Synchrony\analyses\Files processing - availability information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nina/Desktop/University of Vienna/PhD projects/python code/interoception-synchrony/Files data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BD3262-0C4A-48EE-A947-88E7734E3BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF75DCB2-612A-F249-B878-1AC38580E17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="974" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" tabRatio="974" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_IBI_Availability" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="156">
   <si>
     <t>dyad_id (87 dyads)</t>
   </si>
@@ -575,6 +575,9 @@
   <si>
     <t>ch_2_lenght_peaks</t>
   </si>
+  <si>
+    <t>Median</t>
+  </si>
 </sst>
 </file>
 
@@ -592,6 +595,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1068,20 +1072,20 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1115,7 +1119,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1132,7 +1136,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1176,7 +1180,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1210,7 +1214,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1227,7 +1231,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1261,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1312,7 +1316,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1329,7 +1333,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1397,7 +1401,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1482,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1516,7 +1520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1576,7 +1580,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1661,7 +1665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1678,7 +1682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1695,7 +1699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1712,7 +1716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1729,7 +1733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1746,7 +1750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1763,7 +1767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1780,7 +1784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1797,7 +1801,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1814,7 +1818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1831,7 +1835,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1848,7 +1852,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1865,7 +1869,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1882,7 +1886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1899,7 +1903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1916,7 +1920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1933,7 +1937,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1950,7 +1954,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1967,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1984,7 +1988,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2001,7 +2005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2052,7 +2056,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2069,7 +2073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2103,7 +2107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2137,7 +2141,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2154,7 +2158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2171,7 +2175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2188,7 +2192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2205,7 +2209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2239,7 +2243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2256,7 +2260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2290,7 +2294,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2307,7 +2311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2341,7 +2345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2375,7 +2379,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2392,7 +2396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2426,7 +2430,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2443,7 +2447,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2460,7 +2464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2477,7 +2481,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2486,7 +2490,7 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2503,7 +2507,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2537,7 +2541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2571,7 +2575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2588,7 +2592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2605,7 +2609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>118</v>
       </c>
@@ -2626,7 +2630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>119</v>
       </c>
@@ -2647,7 +2651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>120</v>
       </c>
@@ -2668,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
         <v>121</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
         <v>122</v>
       </c>
@@ -2710,12 +2714,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="17"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="18" t="s">
         <v>123</v>
       </c>
@@ -2736,7 +2740,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
         <v>124</v>
       </c>
@@ -2757,19 +2761,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B103" s="17"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
         <v>144</v>
       </c>
@@ -2778,7 +2782,7 @@
       </c>
       <c r="C105" s="17"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
         <v>145</v>
       </c>
@@ -2786,7 +2790,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
         <v>146</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
         <v>147</v>
       </c>
@@ -2816,9 +2820,9 @@
       <selection activeCell="E2" sqref="E2:G91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2954,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3022,32 +3026,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3115,7 +3119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3183,22 +3187,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3263,7 +3267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3331,12 +3335,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3404,12 +3408,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3477,22 +3481,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3560,12 +3564,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3633,32 +3637,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3705,7 +3709,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3731,12 +3735,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3783,47 +3787,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3849,12 +3853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3922,7 +3926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3990,7 +3994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4058,22 +4062,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4141,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4209,12 +4213,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4282,22 +4286,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4365,27 +4369,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4453,27 +4457,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4541,22 +4545,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4624,27 +4628,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4712,17 +4716,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4790,7 +4794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4858,12 +4862,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4889,12 +4893,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4962,7 +4966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5006,27 +5010,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5045,9 +5049,9 @@
       <selection activeCell="E2" sqref="E2:G92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5115,7 +5119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5183,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5251,27 +5255,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5407,7 +5411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5475,27 +5479,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5563,12 +5567,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5636,12 +5640,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5709,22 +5713,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5792,12 +5796,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5865,32 +5869,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5958,7 +5962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -6026,12 +6030,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6099,47 +6103,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6207,12 +6211,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6280,7 +6284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6348,7 +6352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6416,22 +6420,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6499,7 +6503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6567,12 +6571,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6640,22 +6644,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6723,72 +6727,72 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6856,27 +6860,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6944,17 +6948,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -7022,7 +7026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -7090,12 +7094,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -7160,12 +7164,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -7233,7 +7237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -7301,27 +7305,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7336,13 +7340,13 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -7410,7 +7414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7478,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7546,27 +7550,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7634,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7702,7 +7706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7770,27 +7774,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7858,12 +7862,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7931,12 +7935,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8004,22 +8008,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8087,12 +8091,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8160,32 +8164,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8229,7 +8233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8276,12 +8280,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8328,47 +8332,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8415,12 +8419,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8488,7 +8492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8556,7 +8560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8624,22 +8628,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8707,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8775,12 +8779,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8848,22 +8852,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8931,52 +8935,52 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9044,22 +9048,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9127,27 +9131,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9215,17 +9219,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -9293,7 +9297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -9361,22 +9365,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -9444,7 +9448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9488,27 +9492,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9527,14 +9531,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="4" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9551,7 +9555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -9571,7 +9575,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -9591,7 +9595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -9611,7 +9615,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -9631,7 +9635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -9651,7 +9655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -9671,7 +9675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -9691,7 +9695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -9711,7 +9715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -9731,7 +9735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -9759,23 +9763,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:W94"/>
+  <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G91"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" customWidth="1"/>
-    <col min="23" max="23" width="41.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="22" max="22" width="19.5" customWidth="1"/>
+    <col min="23" max="23" width="41.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -9846,7 +9850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9917,7 +9921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9988,7 +9992,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10059,7 +10063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10130,7 +10134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -10156,7 +10160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10227,7 +10231,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10298,7 +10302,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10369,7 +10373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10440,7 +10444,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10511,7 +10515,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10582,7 +10586,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10653,7 +10657,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -10679,7 +10683,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10750,7 +10754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -10821,7 +10825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -10892,7 +10896,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -10963,7 +10967,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -10989,7 +10993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -11086,7 +11090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -11157,7 +11161,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -11228,7 +11232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -11299,7 +11303,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -11325,7 +11329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -11396,7 +11400,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -11467,7 +11471,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -11538,7 +11542,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -11609,7 +11613,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -11635,7 +11639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -11706,7 +11710,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -11777,7 +11781,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -11848,7 +11852,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -11919,7 +11923,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -11990,7 +11994,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -12061,7 +12065,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -12132,7 +12136,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -12203,7 +12207,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -12229,7 +12233,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -12300,7 +12304,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -12371,7 +12375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -12442,7 +12446,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -12513,7 +12517,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -12584,7 +12588,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -12655,7 +12659,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -12726,7 +12730,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -12797,7 +12801,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -12868,7 +12872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -12939,7 +12943,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -13010,7 +13014,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -13081,7 +13085,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -13152,7 +13156,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -13223,7 +13227,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -13294,7 +13298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -13365,7 +13369,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -13436,7 +13440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -13507,7 +13511,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -13578,7 +13582,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -13649,7 +13653,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -13720,7 +13724,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -13791,7 +13795,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -13862,7 +13866,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -13933,7 +13937,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -14004,7 +14008,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -14075,7 +14079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -14146,7 +14150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -14217,7 +14221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -14243,7 +14247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -14314,7 +14318,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -14385,7 +14389,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -14411,7 +14415,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -14482,7 +14486,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -14553,7 +14557,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -14579,7 +14583,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -14650,7 +14654,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -14721,7 +14725,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -14792,7 +14796,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -14863,7 +14867,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -14934,7 +14938,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>79</v>
       </c>
@@ -15005,7 +15009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -15076,7 +15080,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -15147,7 +15151,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -15218,7 +15222,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -15244,7 +15248,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -15315,7 +15319,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -15386,7 +15390,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -15457,7 +15461,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -15528,7 +15532,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -15599,7 +15603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -15670,7 +15674,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -15741,14 +15745,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="B93" ca="1">(GetColorCount(B2:B91, A93))</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
@@ -15756,20 +15757,70 @@
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B94" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="B94" ca="1">(GetColorCount(B2:B91, A94))</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>155</v>
+      </c>
+      <c r="H97">
+        <f xml:space="preserve"> MEDIAN(H2:H91)</f>
+        <v>395.0106100795756</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ref="I97:S97" si="0" xml:space="preserve"> MEDIAN(I2:I91)</f>
+        <v>391.02083333333331</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="0"/>
+        <v>402.31989247311827</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="0"/>
+        <v>90.782150207777832</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="0"/>
+        <v>103.96755500665461</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="0"/>
+        <v>137.18738088150329</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="0"/>
+        <v>1027</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="0"/>
+        <v>1441</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="0"/>
+        <v>1696</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15779,15 +15830,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93:Q93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -15855,7 +15906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -15923,7 +15974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -15991,7 +16042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -16059,7 +16110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -16127,12 +16178,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -16200,7 +16251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -16268,7 +16319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -16336,7 +16387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -16404,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -16472,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -16540,7 +16591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -16608,12 +16659,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -16681,7 +16732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -16749,7 +16800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -16817,7 +16868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -16885,12 +16936,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -16958,12 +17009,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -17031,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -17099,7 +17150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -17167,12 +17218,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -17240,7 +17291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -17308,7 +17359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -17376,7 +17427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -17444,12 +17495,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -17517,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -17585,7 +17636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -17653,7 +17704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -17721,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -17789,7 +17840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -17857,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -17925,7 +17976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -17993,12 +18044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -18066,7 +18117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -18134,7 +18185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -18202,7 +18253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -18270,7 +18321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -18338,7 +18389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -18406,7 +18457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -18474,7 +18525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -18542,7 +18593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -18610,7 +18661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -18678,7 +18729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -18746,7 +18797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -18814,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -18882,7 +18933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -18950,7 +19001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -19018,7 +19069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -19086,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -19154,7 +19205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -19222,7 +19273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -19290,7 +19341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -19358,7 +19409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -19426,7 +19477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -19494,7 +19545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -19562,7 +19613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -19630,7 +19681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -19698,7 +19749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -19766,12 +19817,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -19839,12 +19890,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -19912,7 +19963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -19980,12 +20031,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -20053,7 +20104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -20121,7 +20172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -20189,7 +20240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -20257,7 +20308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -20325,7 +20376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -20393,7 +20444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -20461,7 +20512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -20529,7 +20580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -20597,7 +20648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -20665,7 +20716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -20733,7 +20784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -20801,12 +20852,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -20874,7 +20925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -20942,7 +20993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -21010,12 +21061,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -21083,7 +21134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -21151,7 +21202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -21217,6 +21268,48 @@
       </c>
       <c r="V91">
         <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <f>MEDIAN(H2:H91)</f>
+        <v>232.43357306482125</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ref="I93:Q93" si="0">MEDIAN(I2:I91)</f>
+        <v>238.63364891920321</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="0"/>
+        <v>238.00820712176971</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="0"/>
+        <v>32.241148459693804</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="0"/>
+        <v>41.563000236503534</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="0"/>
+        <v>30.836892341040823</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="O93">
+        <f>MEDIAN(O2:O91)</f>
+        <v>182.5</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="0"/>
+        <v>679.5</v>
       </c>
     </row>
   </sheetData>
@@ -21227,15 +21320,15 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G91"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -21303,7 +21396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -21371,7 +21464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -21439,7 +21532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -21507,7 +21600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -21575,12 +21668,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -21648,7 +21741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -21716,7 +21809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -21784,7 +21877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -21852,7 +21945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -21920,7 +22013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -21988,7 +22081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -22056,12 +22149,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -22129,7 +22222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -22197,7 +22290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -22265,7 +22358,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -22333,12 +22426,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -22406,7 +22499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -22474,7 +22567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -22542,7 +22635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -22610,7 +22703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -22678,7 +22771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -22746,7 +22839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -22814,7 +22907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -22882,7 +22975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -22950,22 +23043,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -23033,7 +23126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -23101,7 +23194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -23169,7 +23262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -23237,7 +23330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -23305,7 +23398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -23373,7 +23466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -23441,7 +23534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -23509,7 +23602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -23577,17 +23670,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -23655,7 +23748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -23723,7 +23816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -23791,7 +23884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -23859,7 +23952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -23927,7 +24020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -23995,7 +24088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -24063,7 +24156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -24131,7 +24224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -24199,7 +24292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -24267,7 +24360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -24335,7 +24428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -24403,7 +24496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -24471,7 +24564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -24539,7 +24632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -24607,7 +24700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -24672,7 +24765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -24740,7 +24833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -24808,7 +24901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -24876,7 +24969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -24944,7 +25037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -25012,7 +25105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -25080,7 +25173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -25148,7 +25241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -25216,7 +25309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -25284,12 +25377,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -25357,7 +25450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -25425,7 +25518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -25493,7 +25586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -25561,7 +25654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -25629,12 +25722,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -25702,7 +25795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -25770,12 +25863,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -25843,7 +25936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -25911,7 +26004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -25979,7 +26072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -26047,7 +26140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -26115,7 +26208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -26183,12 +26276,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -26256,7 +26349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -26324,7 +26417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -26392,7 +26485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -26460,7 +26553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -26528,7 +26621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -26596,7 +26689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -26662,6 +26755,20 @@
       </c>
       <c r="V91">
         <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <f>MEDIAN(H2:H91)</f>
+        <v>388.9865572826713</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ref="I93:J93" si="0">MEDIAN(I2:I91)</f>
+        <v>389.6072130503145</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="0"/>
+        <v>387.77475982297062</v>
       </c>
     </row>
   </sheetData>
@@ -26672,15 +26779,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+      <selection activeCell="H93" sqref="H93:J93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -26748,7 +26855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -26816,7 +26923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -26884,7 +26991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -26952,7 +27059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -27020,12 +27127,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -27093,7 +27200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -27161,7 +27268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -27229,7 +27336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -27297,7 +27404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -27365,7 +27472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -27433,7 +27540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -27501,12 +27608,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -27574,7 +27681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -27642,7 +27749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -27710,7 +27817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -27778,12 +27885,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -27851,7 +27958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -27919,7 +28026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -27987,7 +28094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -28055,7 +28162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -28123,7 +28230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -28191,7 +28298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -28259,7 +28366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -28327,7 +28434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -28395,22 +28502,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -28478,7 +28585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -28546,7 +28653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -28614,7 +28721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -28682,7 +28789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -28750,7 +28857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -28818,7 +28925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -28886,7 +28993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -28954,7 +29061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -29022,17 +29129,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -29100,7 +29207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -29168,7 +29275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -29236,7 +29343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -29304,7 +29411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -29372,7 +29479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -29440,7 +29547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -29508,7 +29615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -29576,7 +29683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -29644,7 +29751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -29712,7 +29819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -29780,7 +29887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -29848,7 +29955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -29916,7 +30023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -29984,7 +30091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -30052,7 +30159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -30120,7 +30227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -30188,7 +30295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -30256,7 +30363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -30324,7 +30431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -30392,7 +30499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -30460,7 +30567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -30528,7 +30635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -30596,12 +30703,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -30669,12 +30776,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -30742,7 +30849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -30810,7 +30917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -30878,7 +30985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -30946,7 +31053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -31014,7 +31121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -31082,7 +31189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -31150,7 +31257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -31218,12 +31325,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -31291,7 +31398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -31359,7 +31466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -31427,7 +31534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -31495,7 +31602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -31563,7 +31670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -31631,12 +31738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -31704,7 +31811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -31772,7 +31879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -31840,7 +31947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -31908,7 +32015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -31976,7 +32083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -32044,7 +32151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -32110,6 +32217,20 @@
       </c>
       <c r="V91">
         <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <f>MEDIAN(H2:H91)</f>
+        <v>232.52826693310021</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ref="I93:J93" si="0">MEDIAN(I2:I91)</f>
+        <v>242.33598642457866</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="0"/>
+        <v>234.87806603773583</v>
       </c>
     </row>
   </sheetData>
@@ -32120,15 +32241,15 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G91"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -32196,7 +32317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -32264,7 +32385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -32332,27 +32453,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -32420,7 +32541,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -32488,7 +32609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -32556,22 +32677,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -32618,7 +32739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -32686,12 +32807,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -32759,12 +32880,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -32832,22 +32953,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -32915,12 +33036,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -32988,32 +33109,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -33081,7 +33202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -33149,12 +33270,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -33222,47 +33343,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -33330,12 +33451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -33403,7 +33524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -33471,7 +33592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -33539,22 +33660,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -33622,7 +33743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -33690,12 +33811,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -33763,22 +33884,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -33846,27 +33967,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -33934,47 +34055,47 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -34042,27 +34163,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -34130,17 +34251,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -34208,7 +34329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -34276,12 +34397,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -34349,12 +34470,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -34422,7 +34543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -34490,29 +34611,43 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <f>MEDIAN(H2:H91)</f>
+        <v>381.83076923076919</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ref="I94:J94" si="0">MEDIAN(I2:I91)</f>
+        <v>382.3528846153846</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="0"/>
+        <v>678.65602383993189</v>
       </c>
     </row>
   </sheetData>
@@ -34523,15 +34658,15 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G91"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -34599,7 +34734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -34667,7 +34802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -34735,27 +34870,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -34820,7 +34955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -34888,7 +35023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -34956,22 +35091,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -35039,7 +35174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -35107,12 +35242,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -35180,12 +35315,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -35253,22 +35388,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -35336,12 +35471,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -35409,32 +35544,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -35481,7 +35616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -35507,12 +35642,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -35559,47 +35694,47 @@
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -35646,12 +35781,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -35719,7 +35854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -35787,7 +35922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -35855,22 +35990,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -35938,7 +36073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -36006,12 +36141,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -36079,22 +36214,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -36162,27 +36297,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -36250,27 +36385,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -36338,22 +36473,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -36421,27 +36556,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -36509,17 +36644,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -36587,7 +36722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -36655,12 +36790,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -36725,12 +36860,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -36798,7 +36933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -36845,29 +36980,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <f>MEDIAN(H2:H91)</f>
+        <v>249.3766233766234</v>
+      </c>
+      <c r="I93">
+        <f>MEDIAN(I2:I91)</f>
+        <v>249.4</v>
+      </c>
+      <c r="J93">
+        <f>MEDIAN(J2:J91)</f>
+        <v>744.42666666666662</v>
       </c>
     </row>
   </sheetData>
@@ -36884,9 +37033,9 @@
       <selection activeCell="E2" sqref="E2:G91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -36954,7 +37103,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -37022,7 +37171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -37090,32 +37239,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -37183,7 +37332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -37251,22 +37400,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -37313,7 +37462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -37381,12 +37530,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -37454,12 +37603,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -37527,22 +37676,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -37610,12 +37759,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -37683,32 +37832,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -37776,7 +37925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -37844,12 +37993,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -37917,47 +38066,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -38025,12 +38174,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -38098,7 +38247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -38166,7 +38315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -38234,22 +38383,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -38317,7 +38466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -38385,12 +38534,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -38458,22 +38607,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -38541,27 +38690,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -38629,47 +38778,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -38737,27 +38886,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -38825,17 +38974,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -38903,7 +39052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -38971,12 +39120,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -39044,12 +39193,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -39117,7 +39266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -39185,27 +39334,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
